--- a/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
+++ b/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
@@ -104,19 +104,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -182,10 +176,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -194,10 +185,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -514,96 +505,96 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
-        <v>3562</v>
+      <c r="B2" s="2">
+        <v>1534</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
-        <v>215</v>
+      <c r="B3" s="2">
+        <v>5234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>1857</v>
+      <c r="B4" s="2">
+        <v>2473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
-        <v>18</v>
+      <c r="B5" s="2">
+        <v>4410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
-        <v>1800</v>
+      <c r="B6" s="2">
+        <v>2693</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
-        <v>1302</v>
+      <c r="B7" s="2">
+        <v>3428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
-        <v>2300</v>
+      <c r="B8" s="2">
+        <v>6813</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
-        <v>402</v>
+      <c r="B9" s="2">
+        <v>10111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3">
-        <v>5911</v>
+      <c r="B10" s="2">
+        <v>2275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3">
-        <v>2</v>
+      <c r="B11" s="2">
+        <v>8425</v>
       </c>
     </row>
   </sheetData>
@@ -622,95 +613,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>10106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>5083</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>5135</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>3617</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2731</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2201</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1527</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1770</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>11360</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>3008</v>
       </c>
     </row>
@@ -730,11 +721,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +737,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>963</v>
       </c>
     </row>
@@ -754,7 +745,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -762,7 +753,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>-792</v>
       </c>
     </row>
@@ -770,7 +761,7 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-1486</v>
       </c>
     </row>
@@ -778,7 +769,7 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1099</v>
       </c>
     </row>
@@ -786,7 +777,7 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>620</v>
       </c>
     </row>
@@ -794,7 +785,7 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>-432</v>
       </c>
     </row>
@@ -802,7 +793,7 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>377</v>
       </c>
     </row>
@@ -810,7 +801,7 @@
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>535</v>
       </c>
     </row>
@@ -818,7 +809,7 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>703</v>
       </c>
     </row>
@@ -826,7 +817,7 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>297</v>
       </c>
     </row>
@@ -834,7 +825,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1057</v>
       </c>
     </row>

--- a/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
+++ b/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>1534</v>
+        <v>8425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>5234</v>
+        <v>1534</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>2473</v>
+        <v>5234</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>4410</v>
+        <v>2473</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>2693</v>
+        <v>4410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>3428</v>
+        <v>2693</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>6813</v>
+        <v>3428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>10111</v>
+        <v>6813</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>2275</v>
+        <v>10111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>8425</v>
+        <v>2275</v>
       </c>
     </row>
   </sheetData>

--- a/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
+++ b/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Aggr_generation"/>
@@ -501,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -717,7 +717,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">

--- a/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
+++ b/inertia_sim/N45_case_data_NordLink/dataframes_transparency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Aggr_generation"/>
@@ -501,7 +501,7 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -522,7 +522,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>8425</v>
+        <v>8219</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -530,7 +530,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <v>1534</v>
+        <v>1496</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -538,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <v>5234</v>
+        <v>5106</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -546,7 +546,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>2473</v>
+        <v>2412</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -554,7 +554,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>4410</v>
+        <v>4302</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -562,7 +562,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>2693</v>
+        <v>2627</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -570,7 +570,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="2">
-        <v>3428</v>
+        <v>3344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -578,7 +578,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="2">
-        <v>6813</v>
+        <v>6646</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -586,7 +586,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2">
-        <v>10111</v>
+        <v>9863</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
@@ -594,7 +594,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2">
-        <v>2275</v>
+        <v>2219</v>
       </c>
     </row>
   </sheetData>
@@ -717,7 +717,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
